--- a/data/trans_orig/P19C05-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C05-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5572DDBF-AE5B-4030-BF33-D2782A0AA0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FA606F5-6441-4653-8F6A-96C46E32B8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8978A9C3-994B-442E-9AF8-38792A09751A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CF13779F-60AD-447F-B306-7E8C786846AA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>27,09%</t>
   </si>
   <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
   </si>
   <si>
     <t>29,98%</t>
   </si>
   <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
   </si>
   <si>
     <t>28,77%</t>
   </si>
   <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>72,91%</t>
   </si>
   <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
   </si>
   <si>
     <t>70,02%</t>
   </si>
   <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
   </si>
   <si>
     <t>71,23%</t>
   </si>
   <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,49 +140,55 @@
     <t>7,48%</t>
   </si>
   <si>
-    <t>6,12%</t>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
   </si>
   <si>
     <t>9,08%</t>
   </si>
   <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
     <t>92,52%</t>
   </si>
   <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
     <t>90,92%</t>
   </si>
   <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
+    <t>92,99%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -191,109 +197,109 @@
     <t>10,77%</t>
   </si>
   <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
     <t>8,12%</t>
   </si>
   <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
+    <t>12,17%</t>
   </si>
   <si>
     <t>89,23%</t>
   </si>
   <si>
-    <t>85,95%</t>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
   </si>
   <si>
     <t>91,88%</t>
   </si>
   <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
     <t>13,59%</t>
   </si>
   <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
   </si>
   <si>
     <t>16,13%</t>
   </si>
   <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
   </si>
   <si>
     <t>14,93%</t>
   </si>
   <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
   </si>
   <si>
     <t>86,41%</t>
   </si>
   <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
   </si>
   <si>
     <t>83,87%</t>
   </si>
   <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
   </si>
   <si>
     <t>85,07%</t>
   </si>
   <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -305,217 +311,205 @@
     <t>27,87%</t>
   </si>
   <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
   </si>
   <si>
     <t>33,28%</t>
   </si>
   <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
   </si>
   <si>
     <t>31,07%</t>
   </si>
   <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
+    <t>28,57%</t>
   </si>
   <si>
     <t>72,13%</t>
   </si>
   <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
   </si>
   <si>
     <t>66,72%</t>
   </si>
   <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
   </si>
   <si>
     <t>68,93%</t>
   </si>
   <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
+    <t>71,43%</t>
   </si>
   <si>
     <t>10,57%</t>
   </si>
   <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
   </si>
   <si>
     <t>10,35%</t>
   </si>
   <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
   </si>
   <si>
     <t>10,46%</t>
   </si>
   <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
   </si>
   <si>
     <t>89,43%</t>
   </si>
   <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
   </si>
   <si>
     <t>89,65%</t>
   </si>
   <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
   </si>
   <si>
     <t>89,54%</t>
   </si>
   <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
   </si>
   <si>
     <t>8,87%</t>
   </si>
   <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
+    <t>6,3%</t>
   </si>
   <si>
     <t>7,65%</t>
   </si>
   <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
   </si>
   <si>
     <t>8,27%</t>
   </si>
   <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
   </si>
   <si>
     <t>91,13%</t>
   </si>
   <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
+    <t>93,7%</t>
   </si>
   <si>
     <t>92,35%</t>
   </si>
   <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
   </si>
   <si>
     <t>91,73%</t>
   </si>
   <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
   </si>
   <si>
     <t>14,94%</t>
   </si>
   <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
   </si>
   <si>
     <t>18,22%</t>
   </si>
   <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
   </si>
   <si>
     <t>16,65%</t>
   </si>
   <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
   </si>
   <si>
     <t>85,06%</t>
   </si>
   <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
   </si>
   <si>
     <t>81,78%</t>
   </si>
   <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
   </si>
   <si>
     <t>83,35%</t>
   </si>
   <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
   </si>
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2015 (Tasa respuesta: 80,03%)</t>
@@ -524,199 +518,211 @@
     <t>21,04%</t>
   </si>
   <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
   </si>
   <si>
     <t>21,36%</t>
   </si>
   <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
   </si>
   <si>
     <t>21,23%</t>
   </si>
   <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
   </si>
   <si>
     <t>78,96%</t>
   </si>
   <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
   </si>
   <si>
     <t>78,64%</t>
   </si>
   <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
   </si>
   <si>
     <t>78,77%</t>
   </si>
   <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
   </si>
   <si>
     <t>8,74%</t>
   </si>
   <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
     <t>7,43%</t>
   </si>
   <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
   </si>
   <si>
     <t>92,57%</t>
   </si>
   <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
   </si>
   <si>
     <t>10,66%</t>
   </si>
   <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
   </si>
   <si>
     <t>11,65%</t>
   </si>
   <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
   </si>
   <si>
     <t>11,17%</t>
   </si>
   <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
   </si>
   <si>
     <t>89,34%</t>
   </si>
   <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
   </si>
   <si>
     <t>88,35%</t>
   </si>
   <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
   </si>
   <si>
     <t>88,83%</t>
   </si>
   <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
   </si>
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2023 (Tasa respuesta: 96,88%)</t>
@@ -725,211 +731,199 @@
     <t>18,33%</t>
   </si>
   <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
   </si>
   <si>
     <t>26,66%</t>
   </si>
   <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
   </si>
   <si>
     <t>23,41%</t>
   </si>
   <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
   </si>
   <si>
     <t>81,67%</t>
   </si>
   <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
   </si>
   <si>
     <t>73,34%</t>
   </si>
   <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
   </si>
   <si>
     <t>76,59%</t>
   </si>
   <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
   </si>
   <si>
     <t>8,93%</t>
   </si>
   <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
+    <t>10,25%</t>
   </si>
   <si>
     <t>7,79%</t>
   </si>
   <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
   </si>
   <si>
     <t>8,34%</t>
   </si>
   <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
   </si>
   <si>
     <t>91,07%</t>
   </si>
   <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
+    <t>89,75%</t>
   </si>
   <si>
     <t>92,21%</t>
   </si>
   <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
   </si>
   <si>
     <t>91,66%</t>
   </si>
   <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
   </si>
   <si>
     <t>8,56%</t>
   </si>
   <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
   </si>
   <si>
     <t>7,76%</t>
   </si>
   <si>
-    <t>6,58%</t>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
   </si>
   <si>
     <t>91,44%</t>
   </si>
   <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
   </si>
   <si>
     <t>92,24%</t>
   </si>
   <si>
-    <t>93,42%</t>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
   </si>
   <si>
     <t>10,33%</t>
   </si>
   <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
   </si>
   <si>
     <t>11,7%</t>
   </si>
   <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
   </si>
   <si>
     <t>11,06%</t>
   </si>
   <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
   </si>
   <si>
     <t>89,67%</t>
   </si>
   <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
   </si>
   <si>
     <t>88,3%</t>
   </si>
   <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
   </si>
   <si>
     <t>88,94%</t>
   </si>
   <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3EDFBFF-90F7-41BF-AF3D-65394D8C04C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B566B5-22EA-4126-8302-9D8992B76610}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1656,7 +1650,7 @@
         <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1671,13 +1665,13 @@
         <v>1216125</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1232</v>
@@ -1686,13 +1680,13 @@
         <v>1257445</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>2419</v>
@@ -1701,13 +1695,13 @@
         <v>2473571</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1763,7 +1757,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1775,13 +1769,13 @@
         <v>48553</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -1790,13 +1784,13 @@
         <v>38961</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>85</v>
@@ -1805,13 +1799,13 @@
         <v>87514</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1823,16 +1817,16 @@
         <v>383</v>
       </c>
       <c r="D11" s="7">
-        <v>402376</v>
+        <v>402375</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>350</v>
@@ -1841,13 +1835,13 @@
         <v>369822</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>733</v>
@@ -1856,13 +1850,13 @@
         <v>772198</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1874,7 +1868,7 @@
         <v>430</v>
       </c>
       <c r="D12" s="7">
-        <v>450929</v>
+        <v>450928</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1930,13 +1924,13 @@
         <v>333652</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>433</v>
@@ -1945,13 +1939,13 @@
         <v>442221</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>768</v>
@@ -1960,13 +1954,13 @@
         <v>775873</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,13 +1975,13 @@
         <v>2121090</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>2246</v>
@@ -1996,13 +1990,13 @@
         <v>2298716</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>4318</v>
@@ -2011,13 +2005,13 @@
         <v>4419806</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,7 +2067,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2092,7 +2086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0132F741-8C01-46B7-A29E-9196B183FD81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76339C7-D899-4853-9E53-09A168ABA5D2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2109,7 +2103,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2216,13 +2210,13 @@
         <v>217175</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>346</v>
@@ -2231,13 +2225,13 @@
         <v>375515</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>545</v>
@@ -2246,13 +2240,13 @@
         <v>592690</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2267,13 +2261,13 @@
         <v>561999</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H5" s="7">
         <v>706</v>
@@ -2282,13 +2276,13 @@
         <v>752727</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M5" s="7">
         <v>1240</v>
@@ -2297,10 +2291,10 @@
         <v>1314726</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>104</v>
@@ -2514,7 +2508,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2532,7 +2526,7 @@
         <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -2541,13 +2535,13 @@
         <v>32417</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>62</v>
@@ -2556,13 +2550,13 @@
         <v>71629</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,13 +2571,13 @@
         <v>402923</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H11" s="7">
         <v>353</v>
@@ -2592,13 +2586,13 @@
         <v>391306</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>721</v>
@@ -2607,13 +2601,13 @@
         <v>794228</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,13 +2675,13 @@
         <v>434781</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H13" s="7">
         <v>526</v>
@@ -2696,13 +2690,13 @@
         <v>572589</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>918</v>
@@ -2711,13 +2705,13 @@
         <v>1007370</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,13 +2726,13 @@
         <v>2474805</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>2385</v>
@@ -2747,13 +2741,13 @@
         <v>2569653</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>4724</v>
@@ -2762,13 +2756,13 @@
         <v>5044458</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2824,7 +2818,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2843,7 +2837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA5F057-C98F-43C5-81C0-4EAA419049F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF03981-CDC1-457A-AD42-B5BB9F479FF2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2860,7 +2854,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2967,13 +2961,13 @@
         <v>96261</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>122</v>
@@ -2982,13 +2976,13 @@
         <v>136491</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>221</v>
@@ -2997,13 +2991,13 @@
         <v>232753</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,13 +3012,13 @@
         <v>361158</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>460</v>
@@ -3033,13 +3027,13 @@
         <v>502383</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>822</v>
@@ -3048,13 +3042,13 @@
         <v>863541</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,13 +3116,13 @@
         <v>148205</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="H7" s="7">
         <v>143</v>
@@ -3137,13 +3131,13 @@
         <v>159645</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M7" s="7">
         <v>281</v>
@@ -3152,13 +3146,13 @@
         <v>307850</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,10 +3167,10 @@
         <v>1548400</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>186</v>
@@ -3265,7 +3259,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3307,13 +3301,13 @@
         <v>74892</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,13 +3322,13 @@
         <v>460852</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H11" s="7">
         <v>456</v>
@@ -3343,13 +3337,13 @@
         <v>471820</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M11" s="7">
         <v>880</v>
@@ -3358,13 +3352,13 @@
         <v>932672</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,13 +3426,13 @@
         <v>282858</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H13" s="7">
         <v>297</v>
@@ -3447,13 +3441,13 @@
         <v>332636</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M13" s="7">
         <v>569</v>
@@ -3462,13 +3456,13 @@
         <v>615495</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,13 +3477,13 @@
         <v>2370411</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H14" s="7">
         <v>2419</v>
@@ -3498,13 +3492,13 @@
         <v>2523277</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>4666</v>
@@ -3513,13 +3507,13 @@
         <v>4893687</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,7 +3569,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3594,7 +3588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{286ECDA7-1F92-4240-A488-2A1FDB798B5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4407C65-B516-4E2D-B852-9B58A38CDE43}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3611,7 +3605,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3718,13 +3712,13 @@
         <v>93610</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7">
         <v>384</v>
@@ -3733,13 +3727,13 @@
         <v>212975</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>519</v>
@@ -3748,13 +3742,13 @@
         <v>306585</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,13 +3763,13 @@
         <v>417073</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H5" s="7">
         <v>986</v>
@@ -3784,13 +3778,13 @@
         <v>585749</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M5" s="7">
         <v>1499</v>
@@ -3799,13 +3793,13 @@
         <v>1002822</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,13 +3867,13 @@
         <v>187288</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>246</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H7" s="7">
         <v>310</v>
@@ -3888,13 +3882,13 @@
         <v>171751</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M7" s="7">
         <v>536</v>
@@ -3903,13 +3897,13 @@
         <v>359039</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,13 +3918,13 @@
         <v>1909332</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>133</v>
       </c>
       <c r="H8" s="7">
         <v>2539</v>
@@ -4016,7 +4010,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4031,10 +4025,10 @@
         <v>263</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H10" s="7">
         <v>75</v>
@@ -4043,13 +4037,13 @@
         <v>49389</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>147</v>
@@ -4058,13 +4052,13 @@
         <v>106007</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4073,13 @@
         <v>604683</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>272</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>273</v>
+        <v>65</v>
       </c>
       <c r="H11" s="7">
         <v>913</v>
@@ -4094,13 +4088,13 @@
         <v>654672</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>274</v>
+        <v>49</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M11" s="7">
         <v>1511</v>
@@ -4109,13 +4103,13 @@
         <v>1259355</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>206</v>
+        <v>275</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4177,13 @@
         <v>337516</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H13" s="7">
         <v>769</v>
@@ -4198,13 +4192,13 @@
         <v>434115</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>1202</v>
@@ -4213,13 +4207,13 @@
         <v>771631</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4228,13 @@
         <v>2931088</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H14" s="7">
         <v>4438</v>
@@ -4249,13 +4243,13 @@
         <v>3274825</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>7246</v>
@@ -4264,13 +4258,13 @@
         <v>6205913</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4326,7 +4320,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C05-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C05-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FA606F5-6441-4653-8F6A-96C46E32B8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4F37A4A-4B38-406E-8EA5-131A45295100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CF13779F-60AD-447F-B306-7E8C786846AA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EDE35CA5-70F8-42C5-8E73-9FE90A0A8B17}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>27,09%</t>
   </si>
   <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
   </si>
   <si>
     <t>29,98%</t>
   </si>
   <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
   </si>
   <si>
     <t>28,77%</t>
   </si>
   <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>72,91%</t>
   </si>
   <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
   </si>
   <si>
     <t>70,02%</t>
   </si>
   <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
   </si>
   <si>
     <t>71,23%</t>
   </si>
   <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,721 +140,733 @@
     <t>7,48%</t>
   </si>
   <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
   </si>
   <si>
     <t>8,43%</t>
   </si>
   <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
   </si>
   <si>
     <t>7,97%</t>
   </si>
   <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2012 (Tasa respuesta: 86,84%)</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
     <t>7,01%</t>
   </si>
   <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
   </si>
   <si>
     <t>92,99%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2012 (Tasa respuesta: 86,84%)</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
   </si>
   <si>
     <t>90,98%</t>
@@ -1335,7 +1347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B566B5-22EA-4126-8302-9D8992B76610}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0654FCCE-1A3A-40C9-B7E8-F060CB6A097A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1787,10 +1799,10 @@
         <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>85</v>
@@ -1799,13 +1811,13 @@
         <v>87514</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1817,16 +1829,16 @@
         <v>383</v>
       </c>
       <c r="D11" s="7">
-        <v>402375</v>
+        <v>402376</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>350</v>
@@ -1835,13 +1847,13 @@
         <v>369822</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="M11" s="7">
         <v>733</v>
@@ -1850,13 +1862,13 @@
         <v>772198</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1868,7 +1880,7 @@
         <v>430</v>
       </c>
       <c r="D12" s="7">
-        <v>450928</v>
+        <v>450929</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1924,13 +1936,13 @@
         <v>333652</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>433</v>
@@ -1939,13 +1951,13 @@
         <v>442221</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>768</v>
@@ -1954,13 +1966,13 @@
         <v>775873</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,13 +1987,13 @@
         <v>2121090</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>2246</v>
@@ -1990,13 +2002,13 @@
         <v>2298716</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>4318</v>
@@ -2005,13 +2017,13 @@
         <v>4419806</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2067,7 +2079,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2086,7 +2098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76339C7-D899-4853-9E53-09A168ABA5D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D3A1C7-54C9-4260-A87D-FFFD22CD50CA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2103,7 +2115,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2210,13 +2222,13 @@
         <v>217175</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>346</v>
@@ -2225,13 +2237,13 @@
         <v>375515</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>545</v>
@@ -2240,13 +2252,13 @@
         <v>592690</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,13 +2273,13 @@
         <v>561999</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H5" s="7">
         <v>706</v>
@@ -2276,13 +2288,13 @@
         <v>752727</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M5" s="7">
         <v>1240</v>
@@ -2291,10 +2303,10 @@
         <v>1314726</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>104</v>
@@ -2526,7 +2538,7 @@
         <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -2535,13 +2547,13 @@
         <v>32417</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>62</v>
@@ -2550,7 +2562,7 @@
         <v>71629</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>129</v>
@@ -2574,10 +2586,10 @@
         <v>131</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H11" s="7">
         <v>353</v>
@@ -2586,13 +2598,13 @@
         <v>391306</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M11" s="7">
         <v>721</v>
@@ -2601,7 +2613,7 @@
         <v>794228</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>137</v>
@@ -2818,7 +2830,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2837,7 +2849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF03981-CDC1-457A-AD42-B5BB9F479FF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06ED21FE-FF69-4CCB-88C8-3FC612AD7038}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3149,10 +3161,10 @@
         <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3167,13 +3179,13 @@
         <v>1548400</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>1503</v>
@@ -3182,13 +3194,13 @@
         <v>1549074</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>2964</v>
@@ -3197,13 +3209,13 @@
         <v>3097474</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,13 +3283,13 @@
         <v>38392</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -3286,13 +3298,13 @@
         <v>36500</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>67</v>
@@ -3301,13 +3313,13 @@
         <v>74892</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,13 +3334,13 @@
         <v>460852</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>456</v>
@@ -3337,13 +3349,13 @@
         <v>471820</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>880</v>
@@ -3352,13 +3364,13 @@
         <v>932672</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,13 +3438,13 @@
         <v>282858</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>211</v>
+        <v>54</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H13" s="7">
         <v>297</v>
@@ -3441,13 +3453,13 @@
         <v>332636</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>569</v>
@@ -3456,13 +3468,13 @@
         <v>615495</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,13 +3489,13 @@
         <v>2370411</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>221</v>
+        <v>62</v>
       </c>
       <c r="H14" s="7">
         <v>2419</v>
@@ -3569,7 +3581,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3588,7 +3600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4407C65-B516-4E2D-B852-9B58A38CDE43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D4AED0-6F8F-404E-A40A-571FF42A1F24}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3870,7 +3882,7 @@
         <v>247</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>248</v>
@@ -3924,7 +3936,7 @@
         <v>256</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H8" s="7">
         <v>2539</v>
@@ -4025,10 +4037,10 @@
         <v>263</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>55</v>
+        <v>264</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H10" s="7">
         <v>75</v>
@@ -4037,13 +4049,13 @@
         <v>49389</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>39</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>147</v>
@@ -4052,13 +4064,13 @@
         <v>106007</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,13 +4085,13 @@
         <v>604683</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>65</v>
+        <v>274</v>
       </c>
       <c r="H11" s="7">
         <v>913</v>
@@ -4088,13 +4100,13 @@
         <v>654672</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>49</v>
+        <v>275</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M11" s="7">
         <v>1511</v>
@@ -4103,13 +4115,13 @@
         <v>1259355</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4177,13 +4189,13 @@
         <v>337516</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>769</v>
@@ -4192,13 +4204,13 @@
         <v>434115</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>1202</v>
@@ -4207,13 +4219,13 @@
         <v>771631</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,13 +4240,13 @@
         <v>2931088</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>4438</v>
@@ -4243,13 +4255,13 @@
         <v>3274825</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>7246</v>
@@ -4258,13 +4270,13 @@
         <v>6205913</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,7 +4332,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C05-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C05-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4F37A4A-4B38-406E-8EA5-131A45295100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{778DB9AF-8A53-4A7A-94B5-9A2F5669A86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EDE35CA5-70F8-42C5-8E73-9FE90A0A8B17}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{568CF6DC-A552-4B77-92A2-C99BB75B4C58}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>27,09%</t>
   </si>
   <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
   </si>
   <si>
     <t>29,98%</t>
   </si>
   <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
   </si>
   <si>
     <t>28,77%</t>
   </si>
   <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>72,91%</t>
   </si>
   <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
   </si>
   <si>
     <t>70,02%</t>
   </si>
   <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
   </si>
   <si>
     <t>71,23%</t>
   </si>
   <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,577 +140,571 @@
     <t>7,48%</t>
   </si>
   <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
   </si>
   <si>
     <t>8,43%</t>
   </si>
   <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
   </si>
   <si>
     <t>7,97%</t>
   </si>
   <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
     <t>6,94%</t>
   </si>
   <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
   </si>
   <si>
     <t>93,06%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>10,77%</t>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2012 (Tasa respuesta: 86,84%)</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
   </si>
   <si>
     <t>8,27%</t>
   </si>
   <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
   </si>
   <si>
     <t>91,73%</t>
   </si>
   <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2012 (Tasa respuesta: 86,84%)</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
   </si>
   <si>
     <t>9,4%</t>
   </si>
   <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
   </si>
   <si>
     <t>90,6%</t>
   </si>
   <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
     <t>88,35%</t>
   </si>
   <si>
-    <t>86,94%</t>
+    <t>86,98%</t>
   </si>
   <si>
     <t>89,52%</t>
@@ -719,10 +713,10 @@
     <t>88,83%</t>
   </si>
   <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
   </si>
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2023 (Tasa respuesta: 96,88%)</t>
@@ -731,211 +725,211 @@
     <t>18,33%</t>
   </si>
   <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
   </si>
   <si>
     <t>26,66%</t>
   </si>
   <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
   </si>
   <si>
     <t>23,41%</t>
   </si>
   <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
   </si>
   <si>
     <t>81,67%</t>
   </si>
   <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
   </si>
   <si>
     <t>73,34%</t>
   </si>
   <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
   </si>
   <si>
     <t>76,59%</t>
   </si>
   <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
   </si>
   <si>
     <t>8,93%</t>
   </si>
   <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
     <t>10,25%</t>
   </si>
   <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
   </si>
   <si>
     <t>89,75%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0654FCCE-1A3A-40C9-B7E8-F060CB6A097A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C91F6E9-D9EE-4BE8-B415-4EE14BEDB9A5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1662,7 +1656,7 @@
         <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1677,13 +1671,13 @@
         <v>1216125</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1232</v>
@@ -1692,13 +1686,13 @@
         <v>1257445</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>2419</v>
@@ -1707,13 +1701,13 @@
         <v>2473571</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,7 +1763,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1781,13 +1775,13 @@
         <v>48553</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -1796,13 +1790,13 @@
         <v>38961</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>85</v>
@@ -1811,13 +1805,13 @@
         <v>87514</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1832,13 +1826,13 @@
         <v>402376</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>350</v>
@@ -1847,13 +1841,13 @@
         <v>369822</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M11" s="7">
         <v>733</v>
@@ -2098,7 +2092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D3A1C7-54C9-4260-A87D-FFFD22CD50CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8159C42-D2B7-4458-9F16-99EFE7A5D750}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2520,7 +2514,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2562,13 +2556,13 @@
         <v>71629</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,13 +2577,13 @@
         <v>402923</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H11" s="7">
         <v>353</v>
@@ -2598,13 +2592,13 @@
         <v>391306</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>721</v>
@@ -2613,13 +2607,13 @@
         <v>794228</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2681,13 @@
         <v>434781</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
         <v>526</v>
@@ -2702,13 +2696,13 @@
         <v>572589</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>918</v>
@@ -2717,13 +2711,13 @@
         <v>1007370</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,13 +2732,13 @@
         <v>2474805</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>2385</v>
@@ -2753,13 +2747,13 @@
         <v>2569653</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>4724</v>
@@ -2768,13 +2762,13 @@
         <v>5044458</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06ED21FE-FF69-4CCB-88C8-3FC612AD7038}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96E9A6D-616D-4DF9-BE50-B4491D5E5107}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2866,7 +2860,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2973,13 +2967,13 @@
         <v>96261</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>122</v>
@@ -2988,13 +2982,13 @@
         <v>136491</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>221</v>
@@ -3003,13 +2997,13 @@
         <v>232753</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,13 +3018,13 @@
         <v>361158</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>460</v>
@@ -3039,13 +3033,13 @@
         <v>502383</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>822</v>
@@ -3054,13 +3048,13 @@
         <v>863541</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,13 +3122,13 @@
         <v>148205</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>178</v>
+        <v>55</v>
       </c>
       <c r="H7" s="7">
         <v>143</v>
@@ -3143,13 +3137,13 @@
         <v>159645</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M7" s="7">
         <v>281</v>
@@ -3158,10 +3152,10 @@
         <v>307850</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>184</v>
@@ -3182,10 +3176,10 @@
         <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>1503</v>
@@ -3194,13 +3188,13 @@
         <v>1549074</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>2964</v>
@@ -3209,13 +3203,13 @@
         <v>3097474</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,7 +3265,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3283,13 +3277,13 @@
         <v>38392</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -3298,13 +3292,13 @@
         <v>36500</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>67</v>
@@ -3313,13 +3307,13 @@
         <v>74892</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,13 +3328,13 @@
         <v>460852</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H11" s="7">
         <v>456</v>
@@ -3349,13 +3343,13 @@
         <v>471820</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M11" s="7">
         <v>880</v>
@@ -3364,13 +3358,13 @@
         <v>932672</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,13 +3432,13 @@
         <v>282858</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>54</v>
+        <v>209</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H13" s="7">
         <v>297</v>
@@ -3453,13 +3447,13 @@
         <v>332636</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M13" s="7">
         <v>569</v>
@@ -3468,13 +3462,13 @@
         <v>615495</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3483,13 @@
         <v>2370411</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>62</v>
+        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>2419</v>
@@ -3504,13 +3498,13 @@
         <v>2523277</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>4666</v>
@@ -3519,13 +3513,13 @@
         <v>4893687</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,7 +3594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D4AED0-6F8F-404E-A40A-571FF42A1F24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1856BB5-639A-4B12-84A6-567A4A696F19}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3617,7 +3611,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3724,13 +3718,13 @@
         <v>93610</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H4" s="7">
         <v>384</v>
@@ -3739,13 +3733,13 @@
         <v>212975</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>519</v>
@@ -3754,13 +3748,13 @@
         <v>306585</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3769,13 @@
         <v>417073</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H5" s="7">
         <v>986</v>
@@ -3790,13 +3784,13 @@
         <v>585749</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M5" s="7">
         <v>1499</v>
@@ -3805,13 +3799,13 @@
         <v>1002822</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,13 +3873,13 @@
         <v>187288</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H7" s="7">
         <v>310</v>
@@ -3894,13 +3888,13 @@
         <v>171751</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M7" s="7">
         <v>536</v>
@@ -3909,13 +3903,13 @@
         <v>359039</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3924,13 @@
         <v>1909332</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H8" s="7">
         <v>2539</v>
@@ -4022,7 +4016,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4070,7 +4064,7 @@
         <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4079,13 @@
         <v>604683</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H11" s="7">
         <v>913</v>
@@ -4100,13 +4094,13 @@
         <v>654672</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M11" s="7">
         <v>1511</v>
@@ -4115,13 +4109,13 @@
         <v>1259355</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,13 +4183,13 @@
         <v>337516</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>769</v>
@@ -4204,13 +4198,13 @@
         <v>434115</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>1202</v>
@@ -4219,13 +4213,13 @@
         <v>771631</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4234,13 @@
         <v>2931088</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>4438</v>
@@ -4255,13 +4249,13 @@
         <v>3274825</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>7246</v>
@@ -4270,13 +4264,13 @@
         <v>6205913</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P19C05-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C05-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{778DB9AF-8A53-4A7A-94B5-9A2F5669A86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D71E3C15-2883-409F-B69E-5E1B44A5970A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{568CF6DC-A552-4B77-92A2-C99BB75B4C58}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{02B7B134-AA17-4A87-BF84-0EE4B4ED0CC5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="289">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -722,214 +722,190 @@
     <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2023 (Tasa respuesta: 96,88%)</t>
   </si>
   <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
   </si>
   <si>
     <t>7,79%</t>
   </si>
   <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
   </si>
   <si>
     <t>92,21%</t>
   </si>
   <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C91F6E9-D9EE-4BE8-B415-4EE14BEDB9A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC031EF1-7E71-43F7-9620-1D6153FB111A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2092,7 +2068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8159C42-D2B7-4458-9F16-99EFE7A5D750}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7921F511-EBFF-468E-A718-791D5FE5687B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2294,7 +2270,7 @@
         <v>1240</v>
       </c>
       <c r="N5" s="7">
-        <v>1314726</v>
+        <v>1314725</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>102</v>
@@ -2345,7 +2321,7 @@
         <v>1785</v>
       </c>
       <c r="N6" s="7">
-        <v>1907416</v>
+        <v>1907415</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2449,7 +2425,7 @@
         <v>2763</v>
       </c>
       <c r="N8" s="7">
-        <v>2935504</v>
+        <v>2935503</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>120</v>
@@ -2500,7 +2476,7 @@
         <v>3074</v>
       </c>
       <c r="N9" s="7">
-        <v>3278556</v>
+        <v>3278555</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2744,7 +2720,7 @@
         <v>2385</v>
       </c>
       <c r="I14" s="7">
-        <v>2569653</v>
+        <v>2569654</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>153</v>
@@ -2795,7 +2771,7 @@
         <v>2911</v>
       </c>
       <c r="I15" s="7">
-        <v>3142242</v>
+        <v>3142243</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2843,7 +2819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96E9A6D-616D-4DF9-BE50-B4491D5E5107}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA066E1-443F-45BA-8496-B79DBCFD21EF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2994,7 +2970,7 @@
         <v>221</v>
       </c>
       <c r="N4" s="7">
-        <v>232753</v>
+        <v>232752</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>166</v>
@@ -3096,7 +3072,7 @@
         <v>1043</v>
       </c>
       <c r="N6" s="7">
-        <v>1096294</v>
+        <v>1096293</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3594,7 +3570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1856BB5-639A-4B12-84A6-567A4A696F19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7104BCE9-7525-4330-9702-FB9CD4C88248}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3715,7 +3691,7 @@
         <v>135</v>
       </c>
       <c r="D4" s="7">
-        <v>93610</v>
+        <v>88146</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>227</v>
@@ -3730,31 +3706,31 @@
         <v>384</v>
       </c>
       <c r="I4" s="7">
-        <v>212975</v>
+        <v>192740</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M4" s="7">
         <v>519</v>
       </c>
       <c r="N4" s="7">
-        <v>306585</v>
+        <v>280886</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,46 +3742,46 @@
         <v>513</v>
       </c>
       <c r="D5" s="7">
-        <v>417073</v>
+        <v>396295</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H5" s="7">
         <v>986</v>
       </c>
       <c r="I5" s="7">
-        <v>585749</v>
+        <v>528876</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M5" s="7">
         <v>1499</v>
       </c>
       <c r="N5" s="7">
-        <v>1002822</v>
+        <v>925171</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,7 +3793,7 @@
         <v>648</v>
       </c>
       <c r="D6" s="7">
-        <v>510683</v>
+        <v>484441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3832,7 +3808,7 @@
         <v>1370</v>
       </c>
       <c r="I6" s="7">
-        <v>798724</v>
+        <v>721616</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3847,7 +3823,7 @@
         <v>2018</v>
       </c>
       <c r="N6" s="7">
-        <v>1309407</v>
+        <v>1206057</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3870,46 +3846,46 @@
         <v>226</v>
       </c>
       <c r="D7" s="7">
-        <v>187288</v>
+        <v>178123</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="H7" s="7">
         <v>310</v>
       </c>
       <c r="I7" s="7">
-        <v>171751</v>
+        <v>157193</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M7" s="7">
         <v>536</v>
       </c>
       <c r="N7" s="7">
-        <v>359039</v>
+        <v>335315</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3921,46 +3897,46 @@
         <v>1697</v>
       </c>
       <c r="D8" s="7">
-        <v>1909332</v>
+        <v>2052414</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H8" s="7">
         <v>2539</v>
       </c>
       <c r="I8" s="7">
-        <v>2034403</v>
+        <v>2040713</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M8" s="7">
         <v>4236</v>
       </c>
       <c r="N8" s="7">
-        <v>3943736</v>
+        <v>4093127</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,7 +3948,7 @@
         <v>1923</v>
       </c>
       <c r="D9" s="7">
-        <v>2096620</v>
+        <v>2230537</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3987,7 +3963,7 @@
         <v>2849</v>
       </c>
       <c r="I9" s="7">
-        <v>2206154</v>
+        <v>2197906</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4002,7 +3978,7 @@
         <v>4772</v>
       </c>
       <c r="N9" s="7">
-        <v>4302775</v>
+        <v>4428442</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4025,46 +4001,46 @@
         <v>72</v>
       </c>
       <c r="D10" s="7">
-        <v>56618</v>
+        <v>53726</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>208</v>
       </c>
       <c r="H10" s="7">
         <v>75</v>
       </c>
       <c r="I10" s="7">
-        <v>49389</v>
+        <v>46177</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="M10" s="7">
         <v>147</v>
       </c>
       <c r="N10" s="7">
-        <v>106007</v>
+        <v>99903</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>199</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,46 +4052,46 @@
         <v>598</v>
       </c>
       <c r="D11" s="7">
-        <v>604683</v>
+        <v>577590</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>272</v>
+        <v>217</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H11" s="7">
         <v>913</v>
       </c>
       <c r="I11" s="7">
-        <v>654672</v>
+        <v>605434</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="M11" s="7">
         <v>1511</v>
       </c>
       <c r="N11" s="7">
-        <v>1259355</v>
+        <v>1183024</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>206</v>
+        <v>273</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,7 +4103,7 @@
         <v>670</v>
       </c>
       <c r="D12" s="7">
-        <v>661301</v>
+        <v>631316</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4142,7 +4118,7 @@
         <v>988</v>
       </c>
       <c r="I12" s="7">
-        <v>704061</v>
+        <v>651611</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4157,7 +4133,7 @@
         <v>1658</v>
       </c>
       <c r="N12" s="7">
-        <v>1365362</v>
+        <v>1282927</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4180,46 +4156,46 @@
         <v>433</v>
       </c>
       <c r="D13" s="7">
-        <v>337516</v>
+        <v>319995</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H13" s="7">
         <v>769</v>
       </c>
       <c r="I13" s="7">
-        <v>434115</v>
+        <v>396109</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>283</v>
+        <v>34</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="M13" s="7">
         <v>1202</v>
       </c>
       <c r="N13" s="7">
-        <v>771631</v>
+        <v>716104</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>108</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4231,46 +4207,46 @@
         <v>2808</v>
       </c>
       <c r="D14" s="7">
-        <v>2931088</v>
+        <v>3026298</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H14" s="7">
         <v>4438</v>
       </c>
       <c r="I14" s="7">
-        <v>3274825</v>
+        <v>3175024</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>293</v>
+        <v>41</v>
       </c>
       <c r="M14" s="7">
         <v>7246</v>
       </c>
       <c r="N14" s="7">
-        <v>6205913</v>
+        <v>6201322</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>117</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,7 +4258,7 @@
         <v>3241</v>
       </c>
       <c r="D15" s="7">
-        <v>3268604</v>
+        <v>3346293</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4297,7 +4273,7 @@
         <v>5207</v>
       </c>
       <c r="I15" s="7">
-        <v>3708940</v>
+        <v>3571133</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4312,7 +4288,7 @@
         <v>8448</v>
       </c>
       <c r="N15" s="7">
-        <v>6977544</v>
+        <v>6917426</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
